--- a/medicine/Bioéthique/Pierre_Le_Coz/Pierre_Le_Coz.xlsx
+++ b/medicine/Bioéthique/Pierre_Le_Coz/Pierre_Le_Coz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Le Coz, né en 1964, est un philosophe, spécialiste français de l'éthique.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrégé et docteur en philosophie, Pierre Le Coz est professeur de philosophie à l'UFR de sciences médicales et paramédicales de Marseille. Ses travaux de recherche s'inscrivent au sein de l'UMR 7268 ADéS Anthropologie, droit, éthique et santé, Université d'Aix-Marseille-EFS-CNRS.
-Membre de l'Académie nationale de médecine, il a été membre puis vice-président du comité consultatif national d'éthique (CCNE) de 2008 à 2012. Il a présidé le comité de déontologie et de prévention des conflits d'intérêts de l'Agence nationale de sécurité sanitaire de l'alimentation, de l'environnement et du travail (ANSES) de 2011 à 2020. En 2018, il a été membre du groupe de travail pour la révision de la loi de bioéthique au Conseil d'État[1] et auditionné par la Mission d'information sur la révision de cette même loi à l’Assemblée nationale[2]. Il est membre du comité d'éthique de l'Etablissement français du sang. En avril 2021, il a été élu membre du comité Éthique et Cancer de la Ligue contre le cancer[3]. 
+Membre de l'Académie nationale de médecine, il a été membre puis vice-président du comité consultatif national d'éthique (CCNE) de 2008 à 2012. Il a présidé le comité de déontologie et de prévention des conflits d'intérêts de l'Agence nationale de sécurité sanitaire de l'alimentation, de l'environnement et du travail (ANSES) de 2011 à 2020. En 2018, il a été membre du groupe de travail pour la révision de la loi de bioéthique au Conseil d'État et auditionné par la Mission d'information sur la révision de cette même loi à l’Assemblée nationale. Il est membre du comité d'éthique de l'Etablissement français du sang. En avril 2021, il a été élu membre du comité Éthique et Cancer de la Ligue contre le cancer. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’empire des coachs : une nouvelle forme de contrôle social, avec Roland Gori, Paris, Albin Michel, 2006, 197 p.  (ISBN 2-226-17498-2)
 Le médecin et la mort : approches éthique et philosophique, préface de Jean-François Mattei, Paris, Espace éthique &amp; Vuibert, 2006, 127 p.  (ISBN 2-7117-7294-2)
@@ -577,7 +593,9 @@
           <t>Publications dans des ouvrages collectifs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Rôle des émotions dans la communication avec le patient ou ses proches  in: Communiquer en anesthésie réanimation, dir. E. Brunel, F. Michel, 2022, Arnette, pp. 61-68.
  Le corps vu à travers le prisme de la bioéthique in: Psychologie du corps et de l'apparence, Ed. PUP, dir. Lionel Dany, 2019, 131-141
@@ -623,7 +641,9 @@
           <t>Publications dans des revues</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> De l’euthanasie au suicide assisté : aspects éthiques et philosophiques  in : Bulletin de l’Académie nationale de médecine, Elsevier, Vol. 206, n°5, mai. 2022, pp. 626-631.
  Epidémie émotionnelle: sommes-nous tous devenus des mufles affectifs ?  in : Revue Alliage, n°82, p.p. 89-100.
